--- a/data/TitanicSimpleModel.xlsx
+++ b/data/TitanicSimpleModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="0" windowWidth="27640" windowHeight="16600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="400" yWindow="0" windowWidth="27640" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Model Pivots" sheetId="2" r:id="rId1"/>
@@ -51179,7 +51179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -51745,26 +51745,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="67.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -111624,7 +111624,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
